--- a/telepítés/Példadiákok2.xlsx
+++ b/telepítés/Példadiákok2.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>Illatos Illés</t>
   </si>
@@ -27,19 +27,16 @@
     <t>1777-03-04</t>
   </si>
   <si>
-    <t>Szar utca 42</t>
-  </si>
-  <si>
     <t>illes.illatos@gmail.com</t>
   </si>
   <si>
     <t>Palacsinta Péter</t>
   </si>
   <si>
-    <t>Sertésmáj Kovászosuborkával</t>
-  </si>
-  <si>
     <t>palipeti69xd@gmail.com</t>
+  </si>
+  <si>
+    <t>Ceglédbercel József Attila utca 42/c</t>
   </si>
 </sst>
 </file>
@@ -372,7 +369,7 @@
   <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -388,13 +385,13 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D1">
         <v>4579735</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F1">
         <v>572452</v>
@@ -402,7 +399,7 @@
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" s="2">
         <v>37863</v>
@@ -414,7 +411,7 @@
         <v>3435365</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F2">
         <v>6425654</v>
